--- a/ExtractionEval.xlsx
+++ b/ExtractionEval.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myasin\Desktop\Tech Talk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myasin\Desktop\Tech Talk\Eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48DE19B-A97E-429B-BB55-DA141EB0BA63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8BF2E-D37D-4F40-B593-8B108D54C099}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{793AB3F8-A8CC-41BD-BBCB-B256730990CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t xml:space="preserve">Template Name </t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Phone No</t>
+  </si>
+  <si>
+    <t>BoA 1</t>
   </si>
 </sst>
 </file>
@@ -122,16 +125,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B85489-419E-4F87-8D78-F6F6F76999C6}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,19 +469,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -492,7 +498,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -538,10 +558,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ExtractionEval.xlsx
+++ b/ExtractionEval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myasin\Desktop\Tech Talk\Eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA8BF2E-D37D-4F40-B593-8B108D54C099}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AEF3A8-80FB-4077-9C2E-DE70CF714291}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{793AB3F8-A8CC-41BD-BBCB-B256730990CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t xml:space="preserve">Template Name </t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>Incorrect Extraction</t>
-  </si>
-  <si>
-    <t>AmeriHome 1</t>
-  </si>
-  <si>
-    <t>Phone No</t>
-  </si>
-  <si>
-    <t>BoA 1</t>
   </si>
 </sst>
 </file>
@@ -456,7 +447,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,33 +474,8 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>

--- a/ExtractionEval.xlsx
+++ b/ExtractionEval.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myasin\Desktop\Tech Talk\Eval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchoedhen\Desktop\InfoExtractEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AEF3A8-80FB-4077-9C2E-DE70CF714291}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B6AEAB-EEA4-4E06-8F8E-0AEB20F3D4D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{793AB3F8-A8CC-41BD-BBCB-B256730990CC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="24">
   <si>
     <t xml:space="preserve">Template Name </t>
   </si>
@@ -62,13 +62,55 @@
   </si>
   <si>
     <t>Incorrect Extraction</t>
+  </si>
+  <si>
+    <t>B of A</t>
+  </si>
+  <si>
+    <t>Daily Interest</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Loan Number</t>
+  </si>
+  <si>
+    <t>Name &amp; Property Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Amount Due </t>
+  </si>
+  <si>
+    <t>Total Payoff</t>
+  </si>
+  <si>
+    <t>Bank of America 1</t>
+  </si>
+  <si>
+    <t>Statement Date</t>
+  </si>
+  <si>
+    <t>Bank of America 2</t>
+  </si>
+  <si>
+    <t>Bank of America 3</t>
+  </si>
+  <si>
+    <t>Bank of America 4</t>
+  </si>
+  <si>
+    <t>Bank of America 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +121,13 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,6 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,17 +494,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B85489-419E-4F87-8D78-F6F6F76999C6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" customWidth="1"/>
     <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="28.90625" customWidth="1"/>
     <col min="4" max="4" width="20.36328125" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" customWidth="1"/>
   </cols>
@@ -474,14 +524,681 @@
       </c>
       <c r="E1" s="2"/>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">

--- a/ExtractionEval.xlsx
+++ b/ExtractionEval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchoedhen\Desktop\InfoExtractEval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Evaluation TechTalk\InfoExtractorEval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B6AEAB-EEA4-4E06-8F8E-0AEB20F3D4D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C4207A-63EC-4F10-8455-BA19875B6CBC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{793AB3F8-A8CC-41BD-BBCB-B256730990CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{793AB3F8-A8CC-41BD-BBCB-B256730990CC}"/>
   </bookViews>
   <sheets>
     <sheet name="EvalDetails" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="36">
   <si>
     <t xml:space="preserve">Template Name </t>
   </si>
@@ -104,13 +104,49 @@
   </si>
   <si>
     <t>Bank of America 5</t>
+  </si>
+  <si>
+    <t>Amerihome 1</t>
+  </si>
+  <si>
+    <t>Investor No</t>
+  </si>
+  <si>
+    <t>Loan No</t>
+  </si>
+  <si>
+    <t>Loan Type </t>
+  </si>
+  <si>
+    <t>Original Loan Amount</t>
+  </si>
+  <si>
+    <t>Original Loan Date</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Present Principal Balance</t>
+  </si>
+  <si>
+    <t>Property Address </t>
+  </si>
+  <si>
+    <t>Total Due</t>
+  </si>
+  <si>
+    <t>Amerihome 2</t>
+  </si>
+  <si>
+    <t>Amerihome 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +167,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -165,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +222,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,22 +537,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B85489-419E-4F87-8D78-F6F6F76999C6}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.54296875" customWidth="1"/>
-    <col min="3" max="3" width="28.90625" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +567,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -538,7 +581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -552,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -566,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -580,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -594,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -608,7 +651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -622,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -636,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -650,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -664,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -678,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -692,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -706,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -720,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -734,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -748,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -762,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -776,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -790,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -804,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -818,7 +861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -832,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -846,7 +889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -860,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -874,7 +917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -888,7 +931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -902,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -916,7 +959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -930,7 +973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -944,7 +987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -958,7 +1001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -972,7 +1015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -986,7 +1029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1000,7 +1043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1014,7 +1057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1056,7 +1099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1084,7 +1127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -1126,7 +1169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -1154,7 +1197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1193,6 +1236,384 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1231,16 +1652,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1248,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/ExtractionEval.xlsx
+++ b/ExtractionEval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tchoedhen\Desktop\TechTalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A699C2-F8BA-4E8E-8A47-50C6E4336B9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9BE4F7-1482-4D8A-96BB-50DF0715CA74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" xr2:uid="{793AB3F8-A8CC-41BD-BBCB-B256730990CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{793AB3F8-A8CC-41BD-BBCB-B256730990CC}"/>
   </bookViews>
   <sheets>
     <sheet name="EvalDetails" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="127">
   <si>
     <t xml:space="preserve">Template Name </t>
   </si>
@@ -251,6 +251,168 @@
   </si>
   <si>
     <t>Wells Fargo Home Mortgage 6</t>
+  </si>
+  <si>
+    <t>Cenlar</t>
+  </si>
+  <si>
+    <t>Arvest Central Mortgage</t>
+  </si>
+  <si>
+    <t>BoA HELOC</t>
+  </si>
+  <si>
+    <t>BBVA Compass</t>
+  </si>
+  <si>
+    <t>Freedom Mortgage</t>
+  </si>
+  <si>
+    <t>Ditech</t>
+  </si>
+  <si>
+    <t>Dovenmuhle</t>
+  </si>
+  <si>
+    <t>Cenlar 1</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Bank of America HELOC 1</t>
+  </si>
+  <si>
+    <t>Borrower Name</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Payoff figures void after</t>
+  </si>
+  <si>
+    <t>Bank of America HELOC 2</t>
+  </si>
+  <si>
+    <t>Bank of America HELOC 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original Loan Amount </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number </t>
+  </si>
+  <si>
+    <t>Statement Forwarded to</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Cenlar 2</t>
+  </si>
+  <si>
+    <t>Cenlar 3</t>
+  </si>
+  <si>
+    <t>Arvest Central Mortgage 1</t>
+  </si>
+  <si>
+    <t>Arvest Central Mortgage 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan </t>
+  </si>
+  <si>
+    <t>Projected Payoff Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Payoff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrower Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collateral </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan Number </t>
+  </si>
+  <si>
+    <t>Total Payoff Amount</t>
+  </si>
+  <si>
+    <t>BBVA Compass 1</t>
+  </si>
+  <si>
+    <t>BBVA Compass 2</t>
+  </si>
+  <si>
+    <t>Freedom Mortgage 1</t>
+  </si>
+  <si>
+    <t>Good Through</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Payoff Due </t>
+  </si>
+  <si>
+    <t>Freedom Mortgage 2</t>
+  </si>
+  <si>
+    <t>Freedom Mortgage 3</t>
+  </si>
+  <si>
+    <t>Freedom Mortgage 4</t>
+  </si>
+  <si>
+    <t>Borrower </t>
+  </si>
+  <si>
+    <t>Loan Number </t>
+  </si>
+  <si>
+    <t>Total Payoff Due</t>
+  </si>
+  <si>
+    <t>Ditech 3</t>
+  </si>
+  <si>
+    <t>Account Number </t>
+  </si>
+  <si>
+    <t>The Payoff </t>
+  </si>
+  <si>
+    <t>Ditech 4</t>
+  </si>
+  <si>
+    <t>Dovenmuhle 1</t>
+  </si>
+  <si>
+    <t>Payoff Statement For</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Dovenmuhle 2</t>
+  </si>
+  <si>
+    <t>Dovenmuhle 3</t>
+  </si>
+  <si>
+    <t>Dovenmuhle 4</t>
+  </si>
+  <si>
+    <t>Property Address</t>
   </si>
 </sst>
 </file>
@@ -656,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B85489-419E-4F87-8D78-F6F6F76999C6}">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3024,23 +3186,2025 @@
         <v>8</v>
       </c>
     </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>75</v>
+      </c>
+      <c r="B169" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>75</v>
+      </c>
+      <c r="B170" t="s">
+        <v>83</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>75</v>
+      </c>
+      <c r="B171" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>75</v>
+      </c>
+      <c r="B172" t="s">
+        <v>83</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>75</v>
+      </c>
+      <c r="B173" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>75</v>
+      </c>
+      <c r="B174" t="s">
+        <v>87</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>75</v>
+      </c>
+      <c r="B175" t="s">
+        <v>87</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D175" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>75</v>
+      </c>
+      <c r="B176" t="s">
+        <v>87</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>75</v>
+      </c>
+      <c r="B177" t="s">
+        <v>87</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>75</v>
+      </c>
+      <c r="B178" t="s">
+        <v>87</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>75</v>
+      </c>
+      <c r="B179" t="s">
+        <v>88</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>75</v>
+      </c>
+      <c r="B180" t="s">
+        <v>88</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>75</v>
+      </c>
+      <c r="B181" t="s">
+        <v>88</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>75</v>
+      </c>
+      <c r="B182" t="s">
+        <v>88</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>75</v>
+      </c>
+      <c r="B183" t="s">
+        <v>88</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>73</v>
+      </c>
+      <c r="B184" t="s">
+        <v>80</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>73</v>
+      </c>
+      <c r="B185" t="s">
+        <v>80</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>73</v>
+      </c>
+      <c r="B186" t="s">
+        <v>80</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" t="s">
+        <v>80</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>73</v>
+      </c>
+      <c r="B188" t="s">
+        <v>80</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>73</v>
+      </c>
+      <c r="B189" t="s">
+        <v>80</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>73</v>
+      </c>
+      <c r="B190" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>73</v>
+      </c>
+      <c r="B191" t="s">
+        <v>80</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>73</v>
+      </c>
+      <c r="B192" t="s">
+        <v>80</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>73</v>
+      </c>
+      <c r="B193" t="s">
+        <v>80</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>73</v>
+      </c>
+      <c r="B194" t="s">
+        <v>94</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>73</v>
+      </c>
+      <c r="B195" t="s">
+        <v>94</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>73</v>
+      </c>
+      <c r="B196" t="s">
+        <v>94</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>73</v>
+      </c>
+      <c r="B197" t="s">
+        <v>94</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>73</v>
+      </c>
+      <c r="B198" t="s">
+        <v>94</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>73</v>
+      </c>
+      <c r="B199" t="s">
+        <v>94</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>73</v>
+      </c>
+      <c r="B200" t="s">
+        <v>94</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>73</v>
+      </c>
+      <c r="B201" t="s">
+        <v>94</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>73</v>
+      </c>
+      <c r="B202" t="s">
+        <v>94</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>73</v>
+      </c>
+      <c r="B203" t="s">
+        <v>94</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>73</v>
+      </c>
+      <c r="B204" t="s">
+        <v>95</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>73</v>
+      </c>
+      <c r="B205" t="s">
+        <v>95</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>73</v>
+      </c>
+      <c r="B206" t="s">
+        <v>95</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>73</v>
+      </c>
+      <c r="B207" t="s">
+        <v>95</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>73</v>
+      </c>
+      <c r="B208" t="s">
+        <v>95</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>73</v>
+      </c>
+      <c r="B209" t="s">
+        <v>95</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>73</v>
+      </c>
+      <c r="B210" t="s">
+        <v>95</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>73</v>
+      </c>
+      <c r="B211" t="s">
+        <v>95</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>73</v>
+      </c>
+      <c r="B212" t="s">
+        <v>95</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>73</v>
+      </c>
+      <c r="B213" t="s">
+        <v>95</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>73</v>
+      </c>
+      <c r="B214" t="s">
+        <v>73</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>73</v>
+      </c>
+      <c r="B215" t="s">
+        <v>73</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>73</v>
+      </c>
+      <c r="B216" t="s">
+        <v>73</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>73</v>
+      </c>
+      <c r="B217" t="s">
+        <v>73</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>73</v>
+      </c>
+      <c r="B218" t="s">
+        <v>73</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D218" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>73</v>
+      </c>
+      <c r="B219" t="s">
+        <v>73</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>73</v>
+      </c>
+      <c r="B220" t="s">
+        <v>73</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>73</v>
+      </c>
+      <c r="B221" t="s">
+        <v>73</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>73</v>
+      </c>
+      <c r="B222" t="s">
+        <v>73</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>73</v>
+      </c>
+      <c r="B223" t="s">
+        <v>73</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>74</v>
+      </c>
+      <c r="B224" t="s">
+        <v>96</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>74</v>
+      </c>
+      <c r="B225" t="s">
+        <v>96</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>74</v>
+      </c>
+      <c r="B226" t="s">
+        <v>96</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>74</v>
+      </c>
+      <c r="B227" t="s">
+        <v>96</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D227" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>74</v>
+      </c>
+      <c r="B228" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D228" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>74</v>
+      </c>
+      <c r="B229" t="s">
+        <v>97</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D229" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>74</v>
+      </c>
+      <c r="B230" t="s">
+        <v>97</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D230" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>74</v>
+      </c>
+      <c r="B231" t="s">
+        <v>97</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>74</v>
+      </c>
+      <c r="B232" t="s">
+        <v>97</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>74</v>
+      </c>
+      <c r="B233" t="s">
+        <v>97</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>76</v>
+      </c>
+      <c r="B234" t="s">
+        <v>105</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>76</v>
+      </c>
+      <c r="B235" t="s">
+        <v>105</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D235" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>76</v>
+      </c>
+      <c r="B236" t="s">
+        <v>105</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D236" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>76</v>
+      </c>
+      <c r="B237" t="s">
+        <v>105</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>76</v>
+      </c>
+      <c r="B238" t="s">
+        <v>105</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>76</v>
+      </c>
+      <c r="B239" t="s">
+        <v>106</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>76</v>
+      </c>
+      <c r="B240" t="s">
+        <v>106</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D240" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>76</v>
+      </c>
+      <c r="B241" t="s">
+        <v>106</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>76</v>
+      </c>
+      <c r="B242" t="s">
+        <v>106</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>76</v>
+      </c>
+      <c r="B243" t="s">
+        <v>106</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D243" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>77</v>
+      </c>
+      <c r="B244" t="s">
+        <v>107</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D244" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>77</v>
+      </c>
+      <c r="B245" t="s">
+        <v>107</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D245" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>77</v>
+      </c>
+      <c r="B246" t="s">
+        <v>107</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D246" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>77</v>
+      </c>
+      <c r="B247" t="s">
+        <v>107</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D247" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>77</v>
+      </c>
+      <c r="B248" t="s">
+        <v>107</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D248" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>77</v>
+      </c>
+      <c r="B249" t="s">
+        <v>107</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D249" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>77</v>
+      </c>
+      <c r="B250" t="s">
+        <v>107</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>77</v>
+      </c>
+      <c r="B251" t="s">
+        <v>110</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D251" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>77</v>
+      </c>
+      <c r="B252" t="s">
+        <v>110</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D252" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>77</v>
+      </c>
+      <c r="B253" t="s">
+        <v>110</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D253" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>77</v>
+      </c>
+      <c r="B254" t="s">
+        <v>110</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D254" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>77</v>
+      </c>
+      <c r="B255" t="s">
+        <v>110</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>77</v>
+      </c>
+      <c r="B256" t="s">
+        <v>110</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D256" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>77</v>
+      </c>
+      <c r="B257" t="s">
+        <v>110</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D257" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>77</v>
+      </c>
+      <c r="B258" t="s">
+        <v>111</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>77</v>
+      </c>
+      <c r="B259" t="s">
+        <v>111</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D259" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>77</v>
+      </c>
+      <c r="B260" t="s">
+        <v>111</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D260" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>77</v>
+      </c>
+      <c r="B261" t="s">
+        <v>111</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>77</v>
+      </c>
+      <c r="B262" t="s">
+        <v>111</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D262" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>77</v>
+      </c>
+      <c r="B263" t="s">
+        <v>111</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>77</v>
+      </c>
+      <c r="B264" t="s">
+        <v>111</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D264" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>77</v>
+      </c>
+      <c r="B265" t="s">
+        <v>112</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D265" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>77</v>
+      </c>
+      <c r="B266" t="s">
+        <v>112</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D266" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>77</v>
+      </c>
+      <c r="B267" t="s">
+        <v>112</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D267" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>77</v>
+      </c>
+      <c r="B268" t="s">
+        <v>112</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>77</v>
+      </c>
+      <c r="B269" t="s">
+        <v>112</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>77</v>
+      </c>
+      <c r="B270" t="s">
+        <v>112</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D270" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>77</v>
+      </c>
+      <c r="B271" t="s">
+        <v>112</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>77</v>
+      </c>
+      <c r="B272" t="s">
+        <v>77</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>77</v>
+      </c>
+      <c r="B273" t="s">
+        <v>77</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>77</v>
+      </c>
+      <c r="B274" t="s">
+        <v>77</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>77</v>
+      </c>
+      <c r="B275" t="s">
+        <v>77</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>77</v>
+      </c>
+      <c r="B276" t="s">
+        <v>77</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>77</v>
+      </c>
+      <c r="B277" t="s">
+        <v>77</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>77</v>
+      </c>
+      <c r="B278" t="s">
+        <v>77</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D278" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>78</v>
+      </c>
+      <c r="B279" t="s">
+        <v>116</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>78</v>
+      </c>
+      <c r="B280" t="s">
+        <v>116</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>78</v>
+      </c>
+      <c r="B281" t="s">
+        <v>116</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>78</v>
+      </c>
+      <c r="B282" t="s">
+        <v>116</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>78</v>
+      </c>
+      <c r="B283" t="s">
+        <v>119</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>78</v>
+      </c>
+      <c r="B284" t="s">
+        <v>119</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>78</v>
+      </c>
+      <c r="B285" t="s">
+        <v>119</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>78</v>
+      </c>
+      <c r="B286" t="s">
+        <v>119</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>79</v>
+      </c>
+      <c r="B287" t="s">
+        <v>120</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>79</v>
+      </c>
+      <c r="B288" t="s">
+        <v>120</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>79</v>
+      </c>
+      <c r="B289" t="s">
+        <v>120</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>79</v>
+      </c>
+      <c r="B290" t="s">
+        <v>120</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D290" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>79</v>
+      </c>
+      <c r="B291" t="s">
+        <v>120</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D291" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>79</v>
+      </c>
+      <c r="B292" t="s">
+        <v>123</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D292" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>79</v>
+      </c>
+      <c r="B293" t="s">
+        <v>123</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D293" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>79</v>
+      </c>
+      <c r="B294" t="s">
+        <v>123</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D294" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>79</v>
+      </c>
+      <c r="B295" t="s">
+        <v>123</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D295" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>79</v>
+      </c>
+      <c r="B296" t="s">
+        <v>123</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>79</v>
+      </c>
+      <c r="B297" t="s">
+        <v>124</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>79</v>
+      </c>
+      <c r="B298" t="s">
+        <v>124</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D298" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>79</v>
+      </c>
+      <c r="B299" t="s">
+        <v>124</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D299" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>79</v>
+      </c>
+      <c r="B300" t="s">
+        <v>124</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D300" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>79</v>
+      </c>
+      <c r="B301" t="s">
+        <v>124</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D301" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>79</v>
+      </c>
+      <c r="B302" t="s">
+        <v>125</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D302" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>79</v>
+      </c>
+      <c r="B303" t="s">
+        <v>125</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D303" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>79</v>
+      </c>
+      <c r="B304" t="s">
+        <v>125</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D304" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>79</v>
+      </c>
+      <c r="B305" t="s">
+        <v>125</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D305" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A306" t="s">
+        <v>79</v>
+      </c>
+      <c r="B306" t="s">
+        <v>125</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D306" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" t="s">
+        <v>79</v>
+      </c>
+      <c r="B307" t="s">
+        <v>79</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D307" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>79</v>
+      </c>
+      <c r="B308" t="s">
+        <v>79</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D308" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>79</v>
+      </c>
+      <c r="B309" t="s">
+        <v>79</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D309" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A310" t="s">
+        <v>79</v>
+      </c>
+      <c r="B310" t="s">
+        <v>79</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D310" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>79</v>
+      </c>
+      <c r="B311" t="s">
+        <v>79</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D311" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC8E8DCE-3ED3-4AD0-8651-86A397FDEFE8}">
+          <x14:formula1>
+            <xm:f>TemplateNames!$A$2:$A$1000000</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A1048576</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72AB352F-CE84-4500-AD8A-581F48BF8531}">
           <x14:formula1>
             <xm:f>TemplateNames!$B$2:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC8E8DCE-3ED3-4AD0-8651-86A397FDEFE8}">
-          <x14:formula1>
-            <xm:f>TemplateNames!$A$2:$A$1000000</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3050,10 +5214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D9B905-92CC-462E-83C3-AC422E544D2E}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3104,6 +5268,41 @@
         <v>37</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10" xr:uid="{FCDD6459-7493-4B40-AFD1-4FF23B010117}">
